--- a/Táblaterv.xlsx
+++ b/Táblaterv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>Adat</t>
   </si>
@@ -48,18 +48,9 @@
     <t>Utolsó belépés időpontja</t>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
     <t>Folyószámlák</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>Azonosító</t>
   </si>
   <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
     <t>Összeg</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
     <t>Kinek a számlája</t>
   </si>
   <si>
@@ -130,6 +115,39 @@
   </si>
   <si>
     <t>Folyószámlák.Számlaszám</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>CURRENT_TIME</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>2024-12-31 23:59:59</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -181,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -190,17 +208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -221,16 +228,77 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -242,24 +310,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -273,108 +323,93 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -655,291 +690,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E31"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="D10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
+      <c r="D24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
       <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
+      <c r="D30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="5"/>
-      <c r="C31" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>21</v>
+      <c r="E31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Táblaterv.xlsx
+++ b/Táblaterv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>Adat</t>
   </si>
@@ -148,6 +148,81 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Megjegyzés</t>
+  </si>
+  <si>
+    <t>A felhasználó által megadott név.</t>
+  </si>
+  <si>
+    <t>A felhasználó által megadott jelszó hashelve.</t>
+  </si>
+  <si>
+    <t>Szerepkör. '0' a regisztrált felhasználó. '1' az banki dolgozó.</t>
+  </si>
+  <si>
+    <t>Az adott felhasználó be van-e jelentkezve.</t>
+  </si>
+  <si>
+    <t>A felhasználó által utolsó belépés időpontját rögzíti. A regisztráció pillanatában rögzíti a jelenlegi időt.</t>
+  </si>
+  <si>
+    <t>A számla egyedi száma. Automatikusan generálódik, 2000 az első számla azonosítója.</t>
+  </si>
+  <si>
+    <t>A felhasználó egyedi azonosítója. Automatikusan generálódik 1000 az első felhasználó azonosítója.</t>
+  </si>
+  <si>
+    <t>A számla nyitásának időpontja. Alapból beállítódik amikor a számlát létrehozzák.</t>
+  </si>
+  <si>
+    <t>A számla zárolva van-e, lehet-e róla utalásokat indítani. A létrehozás pillanatába a számla nincs zárolva.</t>
+  </si>
+  <si>
+    <t>A számlán lévő összeg értéke INT-ként. A számla létrehozása pillanatában nulla.</t>
+  </si>
+  <si>
+    <t>Az utalások egyedi azonosítója. Automatikusan generálódik, 4000 az első utalás azonosítója.</t>
+  </si>
+  <si>
+    <t>Az átutalni kívánt összeg.</t>
+  </si>
+  <si>
+    <t>Az utalás teljesítési határideje.</t>
+  </si>
+  <si>
+    <t>A számlának a száma amelyre az utalást kezdeményezték.</t>
+  </si>
+  <si>
+    <t>A számlának a száma amelyről az utalást kezdeményezték.</t>
+  </si>
+  <si>
+    <t>A felhasználó azonosítója, aki az utalást kezdeményezte.</t>
+  </si>
+  <si>
+    <t>Sikerült-e az utalás. Az utalás kérésének pillanatában hamis.</t>
+  </si>
+  <si>
+    <t>A számlatípusok azonosítója. Automatikusan generálódik, 3000 az első számlatípus azonosítója.</t>
+  </si>
+  <si>
+    <t>A számlatípus elnevezése.</t>
+  </si>
+  <si>
+    <t>A számlatípus állapota. FALSE ha zárolva van.</t>
+  </si>
+  <si>
+    <t>A számlatípus érvényessége. A létrehozás pillanatában levő időtől alapból érvényes.</t>
+  </si>
+  <si>
+    <t>A számlatípus érvényessége. A létrehozás pillanatában 2024-12-31 23:59:59-ig érvényes.</t>
+  </si>
+  <si>
+    <t>Kapcsolótábla felhasználó és Folyószámla között. Első adattag a számla birtokosának azonosítója.</t>
+  </si>
+  <si>
+    <t>Kapcsolótábla felhasználó és Folyószámla között. Második adattag a számla száma.</t>
   </si>
 </sst>
 </file>
@@ -199,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,51 +332,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -310,40 +355,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,61 +380,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F31"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,433 +724,510 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="G2" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="3" t="s">
+      <c r="G3" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="3" t="s">
+      <c r="G4" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="3" t="s">
+      <c r="G5" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="3" t="s">
+      <c r="G6" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="5" t="s">
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="3" t="s">
+      <c r="G10" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="3" t="s">
+      <c r="G11" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="3" t="s">
+      <c r="G12" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="9" t="s">
+      <c r="G13" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="8">
         <v>4000</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="3" t="s">
+      <c r="G16" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="24" t="s">
+      <c r="G17" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="10" t="s">
+      <c r="G18" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="10" t="s">
+      <c r="G19" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="10" t="s">
+      <c r="G20" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="5" t="s">
+      <c r="G21" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="8">
         <v>3000</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="3" t="s">
+      <c r="G24" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="3" t="s">
+      <c r="G25" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="3" t="s">
+      <c r="G26" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="5" t="s">
+      <c r="G27" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="F28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="9" t="s">
+      <c r="G30" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19"/>
+      <c r="C31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>42</v>
+      <c r="E31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
